--- a/genealogy/Stares-BDM.xlsx
+++ b/genealogy/Stares-BDM.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="694">
   <si>
     <t>Year</t>
   </si>
@@ -2139,6 +2139,18 @@
   </si>
   <si>
     <t>BARNETT, Ivy</t>
+  </si>
+  <si>
+    <t>18160</t>
+  </si>
+  <si>
+    <t>BRENNAN, Carmel Margaret</t>
+  </si>
+  <si>
+    <t>19613</t>
+  </si>
+  <si>
+    <t>Brian Wilton</t>
   </si>
 </sst>
 </file>
@@ -2259,7 +2271,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2267,6 +2279,31 @@
     <dxf>
       <font>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2301,7 +2338,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2309,31 +2346,6 @@
     <dxf>
       <font>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2528,8 +2540,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:L177" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A4:L177"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:L179" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A4:L179"/>
   <sortState ref="A5:L172">
     <sortCondition ref="A5:A172"/>
     <sortCondition ref="B5:B172"/>
@@ -2542,11 +2554,11 @@
     <tableColumn id="6" name="Age" dataDxfId="7"/>
     <tableColumn id="7" name="Surname" dataDxfId="6"/>
     <tableColumn id="8" name="Forenames" dataDxfId="5"/>
-    <tableColumn id="9" name="Father / Groom" dataDxfId="1"/>
-    <tableColumn id="10" name="Mother / Bride" dataDxfId="0"/>
-    <tableColumn id="1" name="Birthplace" dataDxfId="4"/>
-    <tableColumn id="11" name="Place" dataDxfId="3"/>
-    <tableColumn id="13" name="Notes" dataDxfId="2"/>
+    <tableColumn id="9" name="Father / Groom" dataDxfId="4"/>
+    <tableColumn id="10" name="Mother / Bride" dataDxfId="3"/>
+    <tableColumn id="1" name="Birthplace" dataDxfId="2"/>
+    <tableColumn id="11" name="Place" dataDxfId="1"/>
+    <tableColumn id="13" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2839,10 +2851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L177"/>
+  <dimension ref="A1:L179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7124,7 +7136,7 @@
       <c r="B133" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="5" t="s">
         <v>209</v>
       </c>
       <c r="D133" s="4" t="s">
@@ -7244,7 +7256,7 @@
       <c r="B137" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="5" t="s">
         <v>206</v>
       </c>
       <c r="D137" s="4" t="s">
@@ -7418,7 +7430,7 @@
       <c r="B143" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="5" t="s">
         <v>318</v>
       </c>
       <c r="D143" s="4" t="s">
@@ -7474,7 +7486,7 @@
       <c r="B145" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="5" t="s">
         <v>322</v>
       </c>
       <c r="D145" s="4" t="s">
@@ -7558,7 +7570,7 @@
       <c r="B148" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="5" t="s">
         <v>330</v>
       </c>
       <c r="D148" s="4" t="s">
@@ -7614,7 +7626,7 @@
       <c r="B150" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C150" s="5" t="s">
         <v>334</v>
       </c>
       <c r="D150" s="4" t="s">
@@ -7642,7 +7654,7 @@
       <c r="B151" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="5" t="s">
         <v>341</v>
       </c>
       <c r="D151" s="4" t="s">
@@ -7698,7 +7710,7 @@
       <c r="B153" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" s="5" t="s">
         <v>347</v>
       </c>
       <c r="D153" s="4" t="s">
@@ -7754,7 +7766,7 @@
       <c r="B155" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" s="5" t="s">
         <v>350</v>
       </c>
       <c r="D155" s="4" t="s">
@@ -7782,7 +7794,7 @@
       <c r="B156" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C156" s="5" t="s">
         <v>352</v>
       </c>
       <c r="D156" s="4" t="s">
@@ -7866,7 +7878,7 @@
       <c r="B159" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="5" t="s">
         <v>495</v>
       </c>
       <c r="D159" s="3" t="s">
@@ -7894,7 +7906,7 @@
       <c r="B160" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="5" t="s">
         <v>510</v>
       </c>
       <c r="D160" s="3" t="s">
@@ -7948,7 +7960,7 @@
       <c r="B162" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="5" t="s">
         <v>493</v>
       </c>
       <c r="D162" s="3" t="s">
@@ -8004,7 +8016,7 @@
       <c r="B164" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="5" t="s">
         <v>490</v>
       </c>
       <c r="D164" s="3" t="s">
@@ -8060,7 +8072,7 @@
       <c r="B166" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="5" t="s">
         <v>496</v>
       </c>
       <c r="D166" s="3" t="s">
@@ -8111,82 +8123,78 @@
       <c r="A168" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B168" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="H168" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
-      <c r="K168" s="3"/>
-      <c r="L168" s="3"/>
+      <c r="B168" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="J168" s="6"/>
+      <c r="K168" s="6"/>
+      <c r="L168" s="6"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B169" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="H169" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
-      <c r="K169" s="3"/>
-      <c r="L169" s="3"/>
+      <c r="B169" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="J169" s="6"/>
+      <c r="K169" s="6"/>
+      <c r="L169" s="6"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>506</v>
+        <v>386</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="3" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H170" s="3"/>
-      <c r="I170" s="3" t="s">
-        <v>687</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
@@ -8196,23 +8204,23 @@
         <v>14</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="3" t="s">
-        <v>504</v>
+        <v>99</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
@@ -8224,10 +8232,10 @@
         <v>14</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>498</v>
+        <v>506</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>507</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>15</v>
@@ -8237,93 +8245,97 @@
         <v>10</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>499</v>
+        <v>153</v>
       </c>
       <c r="H172" s="3"/>
       <c r="I172" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="D173" s="3"/>
+        <v>513</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E173" s="3"/>
-      <c r="F173" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H173" s="3"/>
-      <c r="I173" s="3" t="s">
-        <v>519</v>
-      </c>
+      <c r="F173" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="I173" s="3"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A174" s="4" t="s">
+      <c r="A174" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B174" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
-      <c r="F174" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="H174" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="I174" s="6"/>
-      <c r="J174" s="6"/>
-      <c r="K174" s="6"/>
-      <c r="L174" s="6"/>
+      <c r="B174" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
+      <c r="L174" s="3"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B175" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
+      <c r="B175" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
       <c r="F175" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G175" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="H175" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="I175" s="6"/>
-      <c r="J175" s="6"/>
-      <c r="K175" s="6"/>
-      <c r="L175" s="6"/>
+      <c r="G175" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="J175" s="3"/>
+      <c r="K175" s="3"/>
+      <c r="L175" s="3"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
@@ -8333,7 +8345,7 @@
         <v>390</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
@@ -8341,10 +8353,10 @@
         <v>10</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="I176" s="6"/>
       <c r="J176" s="6"/>
@@ -8359,7 +8371,7 @@
         <v>390</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
@@ -8367,15 +8379,67 @@
         <v>10</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="H177" s="6"/>
-      <c r="I177" s="6" t="s">
-        <v>547</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="H177" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I177" s="6"/>
       <c r="J177" s="6"/>
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A178" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="H178" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="I178" s="6"/>
+      <c r="J178" s="6"/>
+      <c r="K178" s="6"/>
+      <c r="L178" s="6"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A179" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="H179" s="6"/>
+      <c r="I179" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="J179" s="6"/>
+      <c r="K179" s="6"/>
+      <c r="L179" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/genealogy/Stares-BDM.xlsx
+++ b/genealogy/Stares-BDM.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="700">
   <si>
     <t>Year</t>
   </si>
@@ -2151,6 +2151,24 @@
   </si>
   <si>
     <t>Brian Wilton</t>
+  </si>
+  <si>
+    <t>16757</t>
+  </si>
+  <si>
+    <t>Stanley George</t>
+  </si>
+  <si>
+    <t>Mary Josephine</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>8055</t>
+  </si>
+  <si>
+    <t>BREMNER, Kevin John</t>
   </si>
 </sst>
 </file>
@@ -2540,8 +2558,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:L179" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A4:L179"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:L181" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A4:L181"/>
   <sortState ref="A5:L172">
     <sortCondition ref="A5:A172"/>
     <sortCondition ref="B5:B172"/>
@@ -2851,10 +2869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L179"/>
+  <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="G120" sqref="G120"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="H181" sqref="H181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4449,61 +4467,59 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>561</v>
+        <v>21</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>665</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>559</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>22</v>
@@ -4516,65 +4532,65 @@
         <v>5</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>599</v>
+        <v>559</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>466</v>
+        <v>564</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="K57" s="3"/>
-      <c r="L57" s="3" t="s">
-        <v>467</v>
-      </c>
+      <c r="L57" s="3"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3" t="s">
-        <v>468</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="K58" s="3"/>
       <c r="L58" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -4582,66 +4598,64 @@
         <v>5</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>558</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="I59" s="4"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L59" s="3"/>
+      <c r="K59" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>577</v>
+        <v>602</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L60" s="3"/>
     </row>
@@ -4650,32 +4664,32 @@
         <v>5</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>261</v>
+        <v>203</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>264</v>
+        <v>75</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>18</v>
+        <v>577</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>19</v>
+        <v>580</v>
       </c>
       <c r="J61" s="3"/>
-      <c r="K61" s="3" t="s">
-        <v>454</v>
+      <c r="K61" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="L61" s="3"/>
     </row>
@@ -4684,30 +4698,32 @@
         <v>5</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D62" s="4"/>
+        <v>263</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="E62" s="4" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>559</v>
+        <v>18</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>603</v>
+        <v>19</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L62" s="3"/>
     </row>
@@ -4716,28 +4732,30 @@
         <v>5</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="E63" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="F63" s="4" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>587</v>
+        <v>26</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>603</v>
       </c>
       <c r="J63" s="3"/>
-      <c r="K63" s="4" t="s">
-        <v>22</v>
+      <c r="K63" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="L63" s="3"/>
     </row>
@@ -4746,26 +4764,24 @@
         <v>5</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D64" s="4"/>
-      <c r="E64" s="4" t="s">
-        <v>313</v>
-      </c>
+      <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>606</v>
+        <v>169</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>587</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="4" t="s">
@@ -4778,28 +4794,26 @@
         <v>5</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>478</v>
+        <v>312</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>559</v>
+        <v>605</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="4" t="s">
@@ -4812,28 +4826,28 @@
         <v>5</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>327</v>
+      <c r="E66" s="3" t="s">
+        <v>478</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>607</v>
+        <v>559</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>35</v>
+        <v>598</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="4" t="s">
@@ -4846,28 +4860,28 @@
         <v>5</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>516</v>
+      <c r="E67" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>559</v>
+        <v>607</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>598</v>
+        <v>35</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="4" t="s">
@@ -4880,32 +4894,32 @@
         <v>5</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>338</v>
+      <c r="E68" s="3" t="s">
+        <v>516</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>559</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>82</v>
+        <v>598</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="4" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="L68" s="3"/>
     </row>
@@ -4917,29 +4931,29 @@
         <v>336</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>580</v>
+        <v>82</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="L69" s="3"/>
     </row>
@@ -4948,30 +4962,32 @@
         <v>5</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D70" s="4"/>
+        <v>339</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E70" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>608</v>
+        <v>577</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="4" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="L70" s="3"/>
     </row>
@@ -4980,32 +4996,30 @@
         <v>5</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>479</v>
+        <v>343</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="4" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="L71" s="3"/>
     </row>
@@ -5014,32 +5028,34 @@
         <v>5</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
+        <v>346</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="F72" s="4" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>565</v>
+        <v>610</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>125</v>
+        <v>611</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>480</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="L72" s="3"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
@@ -5049,63 +5065,61 @@
         <v>353</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>216</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>612</v>
+        <v>565</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>613</v>
+        <v>125</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="L73" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>216</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>559</v>
+        <v>612</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="4" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="L74" s="3"/>
     </row>
@@ -5114,32 +5128,30 @@
         <v>5</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>559</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="J75" s="3"/>
       <c r="K75" s="4" t="s">
         <v>22</v>
       </c>
@@ -5150,34 +5162,34 @@
         <v>5</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="D76" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>563</v>
+        <v>19</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="L76" s="3"/>
     </row>
@@ -5186,34 +5198,34 @@
         <v>5</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="D77" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="L77" s="3"/>
     </row>
@@ -5225,31 +5237,31 @@
         <v>366</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>614</v>
+        <v>89</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>577</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>30</v>
+        <v>580</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>465</v>
+        <v>69</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="L78" s="3"/>
     </row>
@@ -5258,34 +5270,34 @@
         <v>5</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>615</v>
+        <v>149</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>614</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>616</v>
+        <v>30</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>87</v>
+        <v>182</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>465</v>
       </c>
       <c r="L79" s="3"/>
     </row>
@@ -5297,31 +5309,31 @@
         <v>371</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>19</v>
+        <v>616</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="L80" s="3"/>
     </row>
@@ -5330,34 +5342,34 @@
         <v>5</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="L81" s="3"/>
     </row>
@@ -5369,31 +5381,31 @@
         <v>376</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>620</v>
+        <v>19</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="L82" s="3"/>
     </row>
@@ -5405,28 +5417,28 @@
         <v>376</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>572</v>
+        <v>619</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>17</v>
+        <v>620</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="K83" s="4" t="s">
         <v>22</v>
@@ -5438,106 +5450,106 @@
         <v>5</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E84" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="4" t="s">
+      <c r="F85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H85" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="I85" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="J85" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="K84" s="4" t="s">
+      <c r="K85" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F86" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G86" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H86" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="I86" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="J86" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="K85" s="3" t="s">
+      <c r="K86" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="K86" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="L86" s="3"/>
     </row>
@@ -5546,13 +5558,13 @@
         <v>5</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>514</v>
@@ -5561,13 +5573,13 @@
         <v>10</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>187</v>
@@ -5582,34 +5594,34 @@
         <v>5</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>514</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>572</v>
+        <v>624</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>568</v>
+        <v>625</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>83</v>
+        <v>187</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="L88" s="3"/>
     </row>
@@ -5618,34 +5630,34 @@
         <v>5</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="D89" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>626</v>
+        <v>572</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>627</v>
+        <v>568</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K89" s="4" t="s">
-        <v>162</v>
+      <c r="K89" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="L89" s="3"/>
     </row>
@@ -5654,34 +5666,34 @@
         <v>5</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>15</v>
+        <v>394</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L90" s="3"/>
     </row>
@@ -5690,34 +5702,34 @@
         <v>5</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D91" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>41</v>
+        <v>141</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>567</v>
+        <v>628</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>568</v>
+        <v>629</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="L91" s="3"/>
     </row>
@@ -5726,34 +5738,34 @@
         <v>5</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>12</v>
+        <v>399</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>631</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>568</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="L92" s="3"/>
     </row>
@@ -5765,31 +5777,31 @@
         <v>400</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>633</v>
+        <v>44</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>631</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="L93" s="3"/>
     </row>
@@ -5798,34 +5810,34 @@
         <v>5</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>635</v>
+        <v>131</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>633</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>186</v>
+        <v>22</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="L94" s="3"/>
     </row>
@@ -5837,23 +5849,25 @@
         <v>403</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D95" s="4"/>
-      <c r="E95" s="5" t="s">
-        <v>515</v>
+        <v>404</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>405</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>636</v>
+        <v>7</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>635</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>186</v>
@@ -5868,31 +5882,29 @@
         <v>5</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>327</v>
+        <v>406</v>
+      </c>
+      <c r="D96" s="4"/>
+      <c r="E96" s="5" t="s">
+        <v>515</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>568</v>
+        <v>636</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>186</v>
@@ -5904,74 +5916,74 @@
         <v>5</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>411</v>
+        <v>327</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>638</v>
+        <v>51</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>568</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>458</v>
+        <v>186</v>
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>457</v>
+      <c r="G98" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>639</v>
+        <v>637</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>638</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>186</v>
+        <v>458</v>
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>5</v>
       </c>
@@ -5979,31 +5991,31 @@
         <v>412</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G99" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>640</v>
+      <c r="G99" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>619</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="L99" s="3"/>
     </row>
@@ -6012,34 +6024,34 @@
         <v>5</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>642</v>
+        <v>146</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>640</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>594</v>
+        <v>641</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K100" s="4" t="s">
-        <v>120</v>
+        <v>22</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="L100" s="3"/>
     </row>
@@ -6051,31 +6063,31 @@
         <v>417</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>576</v>
+        <v>642</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>152</v>
+        <v>87</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="L101" s="3"/>
     </row>
@@ -6084,34 +6096,34 @@
         <v>5</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>568</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>456</v>
+        <v>152</v>
       </c>
       <c r="L102" s="3"/>
     </row>
@@ -6123,31 +6135,31 @@
         <v>422</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>362</v>
+        <v>424</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>631</v>
+        <v>567</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>568</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>152</v>
+        <v>456</v>
       </c>
       <c r="L103" s="3"/>
     </row>
@@ -6156,34 +6168,34 @@
         <v>5</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>15</v>
+        <v>425</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>264</v>
+        <v>362</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>597</v>
+        <v>145</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>631</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K104" s="4" t="s">
-        <v>189</v>
+        <v>22</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="L104" s="3"/>
     </row>
@@ -6192,178 +6204,178 @@
         <v>5</v>
       </c>
       <c r="B105" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L105" s="3"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>429</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K105" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L105" s="3"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>476</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L106" s="3"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="F107" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="G107" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="H107" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="I106" s="3" t="s">
+      <c r="I107" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="J106" s="3" t="s">
+      <c r="J107" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="K106" s="3" t="s">
+      <c r="K107" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L106" s="3"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
+      <c r="L107" s="3"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B108" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C108" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E108" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F108" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G107" s="4" t="s">
+      <c r="G108" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H107" s="4" t="s">
+      <c r="H108" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="I107" s="3" t="s">
+      <c r="I108" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="J107" s="3" t="s">
+      <c r="J108" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K107" s="3" t="s">
+      <c r="K108" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="L107" s="3"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
+      <c r="L108" s="3"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E109" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F109" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="G109" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H108" s="3" t="s">
+      <c r="H109" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="I108" s="3" t="s">
+      <c r="I109" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="J108" s="3" t="s">
+      <c r="J109" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K108" s="3" t="s">
+      <c r="K109" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="L108" s="3"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K109" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="L109" s="3"/>
     </row>
@@ -6375,31 +6387,31 @@
         <v>434</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>12</v>
+        <v>435</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="I110" s="4" t="s">
-        <v>650</v>
+        <v>645</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>648</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L110" s="3"/>
     </row>
@@ -6408,34 +6420,34 @@
         <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>567</v>
+        <v>649</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>568</v>
+        <v>650</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L111" s="3"/>
     </row>
@@ -6444,34 +6456,34 @@
         <v>5</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>15</v>
+        <v>440</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>651</v>
+        <v>567</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>156</v>
+        <v>568</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L112" s="3"/>
     </row>
@@ -6483,31 +6495,31 @@
         <v>442</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>653</v>
+        <v>156</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="L113" s="3"/>
     </row>
@@ -6519,31 +6531,31 @@
         <v>442</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>618</v>
+        <v>652</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>149</v>
+        <v>653</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="L114" s="3"/>
     </row>
@@ -6552,34 +6564,34 @@
         <v>5</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>654</v>
+        <v>618</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>655</v>
+        <v>149</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="L115" s="3"/>
     </row>
@@ -6588,34 +6600,34 @@
         <v>5</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>567</v>
+        <v>654</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>568</v>
+        <v>655</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="L116" s="3"/>
     </row>
@@ -6627,31 +6639,31 @@
         <v>449</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>380</v>
+        <v>451</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>610</v>
+        <v>567</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>611</v>
+        <v>568</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="L117" s="3"/>
     </row>
@@ -6663,104 +6675,104 @@
         <v>449</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E118" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="L118" s="3"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="4" t="s">
+      <c r="F119" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H118" s="4" t="s">
+      <c r="H119" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="I118" s="4" t="s">
+      <c r="I119" s="4" t="s">
         <v>598</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K118" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="L118" s="3"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A119" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>525</v>
       </c>
       <c r="J119" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K119" s="3" t="s">
+      <c r="K119" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L119" s="3"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K120" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L119" s="3" t="s">
+      <c r="L120" s="3" t="s">
         <v>523</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="J120" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K120" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="L120" s="5" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -6771,124 +6783,130 @@
         <v>530</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G121" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="I121" s="5" t="s">
+      <c r="G121" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="I121" s="4" t="s">
         <v>598</v>
       </c>
       <c r="J121" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>536</v>
+        <v>189</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L122" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C123" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6" t="s">
+      <c r="D123" s="6"/>
+      <c r="E123" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="F122" s="6" t="s">
+      <c r="F123" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="G122" s="6" t="s">
+      <c r="G123" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="H122" s="6" t="s">
+      <c r="H123" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="I122" s="5" t="s">
+      <c r="I123" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J122" s="6" t="s">
+      <c r="J123" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="K122" s="6" t="s">
+      <c r="K123" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="L122" s="6"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="J123" s="3"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="3"/>
+      <c r="L123" s="6"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="K124" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="J124" s="3"/>
+      <c r="K124" s="4"/>
       <c r="L124" s="3"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -6902,21 +6920,21 @@
         <v>218</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4" t="s">
-        <v>568</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="I125" s="4"/>
       <c r="J125" s="4" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
@@ -6926,27 +6944,27 @@
         <v>14</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H126" s="4"/>
       <c r="I126" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>198</v>
+        <v>22</v>
       </c>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
@@ -6962,21 +6980,23 @@
         <v>211</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="I127" s="4"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -6984,29 +7004,27 @@
         <v>14</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K128" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="I128" s="4"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="4"/>
       <c r="L128" s="3"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -7020,21 +7038,21 @@
         <v>200</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="I129" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4" t="s">
+        <v>657</v>
+      </c>
       <c r="J129" s="4" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
@@ -7044,27 +7062,27 @@
         <v>14</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4" t="s">
-        <v>659</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="I130" s="4"/>
       <c r="J130" s="4" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
@@ -7080,21 +7098,21 @@
         <v>202</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="I131" s="4"/>
-      <c r="J131" s="5" t="s">
-        <v>22</v>
+        <v>66</v>
+      </c>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
@@ -7104,27 +7122,27 @@
         <v>14</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>577</v>
+        <v>660</v>
       </c>
       <c r="I132" s="4"/>
-      <c r="J132" s="4" t="s">
-        <v>32</v>
+      <c r="J132" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
@@ -7136,25 +7154,25 @@
       <c r="B133" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C133" s="4" t="s">
         <v>209</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4" t="s">
-        <v>580</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="I133" s="4"/>
       <c r="J133" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
@@ -7164,27 +7182,27 @@
         <v>14</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="I134" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4" t="s">
+        <v>580</v>
+      </c>
       <c r="J134" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
@@ -7200,21 +7218,21 @@
         <v>204</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4" t="s">
-        <v>662</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="I135" s="4"/>
       <c r="J135" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
@@ -7224,27 +7242,27 @@
         <v>14</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="4" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="H136" s="4"/>
       <c r="I136" s="4" t="s">
-        <v>591</v>
+        <v>662</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
@@ -7256,25 +7274,25 @@
       <c r="B137" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>206</v>
+      <c r="C137" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="I137" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4" t="s">
+        <v>591</v>
+      </c>
       <c r="J137" s="4" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
@@ -7286,25 +7304,25 @@
       <c r="B138" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>207</v>
+      <c r="C138" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="4" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="I138" s="4"/>
       <c r="J138" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
@@ -7317,22 +7335,22 @@
         <v>205</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4" t="s">
-        <v>587</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="I139" s="4"/>
       <c r="J139" s="4" t="s">
         <v>178</v>
       </c>
@@ -7344,10 +7362,10 @@
         <v>14</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>15</v>
@@ -7357,14 +7375,16 @@
         <v>10</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H140" s="4"/>
       <c r="I140" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="J140" s="3"/>
-      <c r="K140" s="4"/>
+        <v>587</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K140" s="3"/>
       <c r="L140" s="3"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -7372,24 +7392,24 @@
         <v>14</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="4" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="H141" s="4"/>
       <c r="I141" s="4" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="J141" s="3"/>
       <c r="K141" s="4"/>
@@ -7403,22 +7423,22 @@
         <v>311</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="4" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="I142" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4" t="s">
+        <v>591</v>
+      </c>
       <c r="J142" s="3"/>
       <c r="K142" s="4"/>
       <c r="L142" s="3"/>
@@ -7428,10 +7448,10 @@
         <v>14</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>318</v>
+        <v>311</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>12</v>
@@ -7441,10 +7461,10 @@
         <v>10</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="I143" s="4"/>
       <c r="J143" s="3"/>
@@ -7456,25 +7476,25 @@
         <v>14</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H144" s="4"/>
-      <c r="I144" s="4" t="s">
-        <v>664</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="I144" s="4"/>
       <c r="J144" s="3"/>
       <c r="K144" s="4"/>
       <c r="L144" s="3"/>
@@ -7486,7 +7506,7 @@
       <c r="B145" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C145" s="4" t="s">
         <v>322</v>
       </c>
       <c r="D145" s="4" t="s">
@@ -7501,7 +7521,7 @@
       </c>
       <c r="H145" s="4"/>
       <c r="I145" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J145" s="3"/>
       <c r="K145" s="4"/>
@@ -7512,25 +7532,25 @@
         <v>14</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H146" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="I146" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4" t="s">
+        <v>665</v>
+      </c>
       <c r="J146" s="3"/>
       <c r="K146" s="4"/>
       <c r="L146" s="3"/>
@@ -7540,66 +7560,66 @@
         <v>14</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="4" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H147" s="4"/>
-      <c r="I147" s="4" t="s">
-        <v>667</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="I147" s="4"/>
       <c r="J147" s="3"/>
       <c r="K147" s="4"/>
       <c r="L147" s="3"/>
     </row>
-    <row r="148" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>330</v>
+        <v>325</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="H148" s="4"/>
       <c r="I148" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J148" s="3"/>
       <c r="K148" s="4"/>
       <c r="L148" s="3"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>15</v>
@@ -7609,11 +7629,11 @@
         <v>10</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H149" s="4"/>
       <c r="I149" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J149" s="3"/>
       <c r="K149" s="4"/>
@@ -7626,23 +7646,23 @@
       <c r="B150" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C150" s="5" t="s">
-        <v>334</v>
+      <c r="C150" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H150" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="I150" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4" t="s">
+        <v>669</v>
+      </c>
       <c r="J150" s="3"/>
       <c r="K150" s="4"/>
       <c r="L150" s="3"/>
@@ -7652,25 +7672,25 @@
         <v>14</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4" t="s">
-        <v>671</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="I151" s="4"/>
       <c r="J151" s="3"/>
       <c r="K151" s="4"/>
       <c r="L151" s="3"/>
@@ -7680,24 +7700,24 @@
         <v>14</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>341</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="4" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="H152" s="4"/>
       <c r="I152" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J152" s="3"/>
       <c r="K152" s="4"/>
@@ -7710,22 +7730,22 @@
       <c r="B153" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C153" s="5" t="s">
-        <v>347</v>
+      <c r="C153" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="4" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="H153" s="4"/>
       <c r="I153" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J153" s="3"/>
       <c r="K153" s="4"/>
@@ -7738,7 +7758,7 @@
       <c r="B154" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" s="5" t="s">
         <v>347</v>
       </c>
       <c r="D154" s="4" t="s">
@@ -7753,7 +7773,7 @@
       </c>
       <c r="H154" s="4"/>
       <c r="I154" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J154" s="3"/>
       <c r="K154" s="4"/>
@@ -7764,24 +7784,24 @@
         <v>14</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>350</v>
+        <v>345</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="4" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="H155" s="4"/>
       <c r="I155" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J155" s="3"/>
       <c r="K155" s="4"/>
@@ -7792,10 +7812,10 @@
         <v>14</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>15</v>
@@ -7805,11 +7825,11 @@
         <v>10</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="H156" s="4"/>
       <c r="I156" s="4" t="s">
-        <v>646</v>
+        <v>675</v>
       </c>
       <c r="J156" s="3"/>
       <c r="K156" s="4"/>
@@ -7822,7 +7842,7 @@
       <c r="B157" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" s="5" t="s">
         <v>352</v>
       </c>
       <c r="D157" s="4" t="s">
@@ -7837,7 +7857,7 @@
       </c>
       <c r="H157" s="4"/>
       <c r="I157" s="4" t="s">
-        <v>676</v>
+        <v>646</v>
       </c>
       <c r="J157" s="3"/>
       <c r="K157" s="4"/>
@@ -7848,10 +7868,10 @@
         <v>14</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>15</v>
@@ -7861,42 +7881,42 @@
         <v>10</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="H158" s="4"/>
       <c r="I158" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J158" s="3"/>
       <c r="K158" s="4"/>
       <c r="L158" s="3"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B159" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="D159" s="3" t="s">
+      <c r="B159" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D159" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3" t="s">
-        <v>678</v>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4" t="s">
+        <v>677</v>
       </c>
       <c r="J159" s="3"/>
-      <c r="K159" s="3"/>
+      <c r="K159" s="4"/>
       <c r="L159" s="3"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -7904,24 +7924,24 @@
         <v>14</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E160" s="3"/>
       <c r="F160" s="3" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="H160" s="3"/>
       <c r="I160" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
@@ -7934,21 +7954,23 @@
       <c r="B161" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C161" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D161" s="3"/>
+      <c r="C161" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E161" s="3"/>
       <c r="F161" s="3" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="H161" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="I161" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3" t="s">
+        <v>679</v>
+      </c>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
@@ -7960,21 +7982,19 @@
       <c r="B162" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C162" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C162" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>634</v>
+        <v>680</v>
       </c>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
@@ -7986,10 +8006,10 @@
         <v>14</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>12</v>
@@ -7999,10 +8019,10 @@
         <v>10</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>681</v>
+        <v>634</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
@@ -8014,10 +8034,10 @@
         <v>14</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>489</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>12</v>
@@ -8027,10 +8047,10 @@
         <v>10</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -8042,25 +8062,25 @@
         <v>14</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>481</v>
+        <v>376</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>490</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3" t="s">
-        <v>683</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
@@ -8072,8 +8092,8 @@
       <c r="B166" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C166" s="5" t="s">
-        <v>496</v>
+      <c r="C166" s="3" t="s">
+        <v>481</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>15</v>
@@ -8083,11 +8103,11 @@
         <v>10</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H166" s="3"/>
       <c r="I166" s="3" t="s">
-        <v>638</v>
+        <v>683</v>
       </c>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
@@ -8100,20 +8120,22 @@
       <c r="B167" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C167" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="D167" s="3"/>
+      <c r="C167" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3" t="s">
-        <v>501</v>
+        <v>10</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="H167" s="3"/>
       <c r="I167" s="3" t="s">
-        <v>684</v>
+        <v>638</v>
       </c>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
@@ -8123,27 +8145,27 @@
       <c r="A168" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B168" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
-      <c r="F168" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="H168" s="6"/>
-      <c r="I168" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="J168" s="6"/>
-      <c r="K168" s="6"/>
-      <c r="L168" s="6"/>
+      <c r="B168" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="J168" s="3"/>
+      <c r="K168" s="3"/>
+      <c r="L168" s="3"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
@@ -8153,7 +8175,7 @@
         <v>472</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
@@ -8161,11 +8183,11 @@
         <v>10</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>693</v>
+        <v>533</v>
       </c>
       <c r="H169" s="6"/>
       <c r="I169" s="6" t="s">
-        <v>623</v>
+        <v>691</v>
       </c>
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
@@ -8175,52 +8197,50 @@
       <c r="A170" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B170" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="H170" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
-      <c r="K170" s="3"/>
-      <c r="L170" s="3"/>
+      <c r="B170" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="J170" s="6"/>
+      <c r="K170" s="6"/>
+      <c r="L170" s="6"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>506</v>
+        <v>386</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
@@ -8234,23 +8254,23 @@
       <c r="B172" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C172" s="5" t="s">
-        <v>507</v>
+      <c r="C172" s="3" t="s">
+        <v>508</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E172" s="3"/>
       <c r="F172" s="3" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H172" s="3"/>
-      <c r="I172" s="3" t="s">
-        <v>687</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
@@ -8260,25 +8280,25 @@
         <v>14</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>513</v>
+        <v>506</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>507</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="3" t="s">
-        <v>504</v>
+        <v>10</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="H173" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="I173" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3" t="s">
+        <v>687</v>
+      </c>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
@@ -8288,50 +8308,52 @@
         <v>14</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="3" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="H174" s="3"/>
-      <c r="I174" s="3" t="s">
-        <v>689</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="I174" s="3"/>
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="D175" s="3"/>
+        <v>497</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E175" s="3"/>
-      <c r="F175" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="4" t="s">
-        <v>137</v>
+      <c r="F175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>499</v>
       </c>
       <c r="H175" s="3"/>
       <c r="I175" s="3" t="s">
-        <v>519</v>
+        <v>689</v>
       </c>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
@@ -8341,27 +8363,27 @@
       <c r="A176" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B176" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
+      <c r="B176" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
       <c r="F176" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G176" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="H176" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="I176" s="6"/>
-      <c r="J176" s="6"/>
-      <c r="K176" s="6"/>
-      <c r="L176" s="6"/>
+      <c r="G176" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="J176" s="3"/>
+      <c r="K176" s="3"/>
+      <c r="L176" s="3"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
@@ -8371,7 +8393,7 @@
         <v>390</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
@@ -8379,10 +8401,10 @@
         <v>10</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
@@ -8397,7 +8419,7 @@
         <v>390</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
@@ -8405,10 +8427,10 @@
         <v>10</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="I178" s="6"/>
       <c r="J178" s="6"/>
@@ -8423,7 +8445,7 @@
         <v>390</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
@@ -8431,15 +8453,67 @@
         <v>10</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="H179" s="6"/>
-      <c r="I179" s="6" t="s">
-        <v>547</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="H179" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="I179" s="6"/>
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
       <c r="L179" s="6"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A180" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="H180" s="6"/>
+      <c r="I180" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="J180" s="6"/>
+      <c r="K180" s="6"/>
+      <c r="L180" s="6"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A181" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="H181" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="I181" s="6"/>
+      <c r="J181" s="6"/>
+      <c r="K181" s="6"/>
+      <c r="L181" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/genealogy/Stares-BDM.xlsx
+++ b/genealogy/Stares-BDM.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="704">
   <si>
     <t>Year</t>
   </si>
@@ -2169,6 +2169,18 @@
   </si>
   <si>
     <t>BREMNER, Kevin John</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>15078</t>
+  </si>
+  <si>
+    <t>Pauline Margaret</t>
+  </si>
+  <si>
+    <t>RICHARDSON, Victor Royal</t>
   </si>
 </sst>
 </file>
@@ -2558,8 +2570,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:L181" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A4:L181"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:L182" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A4:L182"/>
   <sortState ref="A5:L172">
     <sortCondition ref="A5:A172"/>
     <sortCondition ref="B5:B172"/>
@@ -2869,10 +2881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L181"/>
+  <dimension ref="A1:L182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="H181" sqref="H181"/>
+      <selection activeCell="H182" sqref="H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8515,6 +8527,32 @@
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
     </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A182" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="H182" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="I182" s="6"/>
+      <c r="J182" s="6"/>
+      <c r="K182" s="6"/>
+      <c r="L182" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
